--- a/models.xlsx
+++ b/models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricia\Documents\578project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE15C03E-6480-4446-8E7B-EBABD4D12E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AD483B-BFC3-4620-A300-7491921B3B94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0AB5D63-9BA6-4B43-8FDD-7FBC0F46C7F5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Age</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">006					</t>
-  </si>
-  <si>
-    <t xml:space="preserve">							</t>
   </si>
   <si>
     <t>p-val</t>
@@ -447,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480F4DC1-8946-46EA-84F4-8A18901504FE}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +459,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -471,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -480,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -489,12 +486,12 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -517,7 +514,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -551,15 +548,10 @@
         <v>0.96</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
